--- a/Questionário Artes Gestacional (respostas).xlsx
+++ b/Questionário Artes Gestacional (respostas).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="357">
   <si>
     <t>Idade (anos)</t>
   </si>
@@ -121,7 +121,7 @@
     <t>Indicaria a arte gestacional para conhecidas?</t>
   </si>
   <si>
-    <t>Descreva a ilustração presente na arte gestacional (Nuvens, carrinhos, coroa, flores, placenta, árvore ...)</t>
+    <t>Descreva a ilustração presente na arte gestacional</t>
   </si>
   <si>
     <t>O que você fez com a arte ao chegar em casa?</t>
@@ -274,7 +274,7 @@
     <t>Música de preferência da gestante, Ritual de despedida da barriga</t>
   </si>
   <si>
-    <t>Bolas de futebol, Estrelas</t>
+    <t>Bola de futebol, Estrelas</t>
   </si>
   <si>
     <t>10/11/0022</t>
@@ -424,7 +424,7 @@
     <t>Vermelho e seus tons, Azul e seus tons</t>
   </si>
   <si>
-    <t xml:space="preserve">Bola de futebol, Nome do bebê </t>
+    <t>Bola de futebol, Nome do bebê</t>
   </si>
   <si>
     <t xml:space="preserve">José Miguel </t>
@@ -445,7 +445,7 @@
     <t>Sim, família</t>
   </si>
   <si>
-    <t xml:space="preserve">Flores, Placenta </t>
+    <t>Flores, Placenta</t>
   </si>
   <si>
     <t>Mostrei a família, Tirei mais fotos</t>
@@ -469,7 +469,7 @@
     <t>Roxo (violeta) e seus tons</t>
   </si>
   <si>
-    <t>Placenta, cefalico</t>
+    <t>Placenta</t>
   </si>
   <si>
     <t>5/26/0023</t>
@@ -520,15 +520,12 @@
     <t>Prazer, Relaxamento, Imaginar o bebê, Consciência em relação as posições fetais, Buscar conhecer sobre o bebê e seu estado intrauterino (informações, Busca por proximidade com o bebê, Proximidade e conexão com o bebê, Busca por interação com a família, Sentir-se confiante para o parto, Sentir-se feliz, Sentir-se triste com a perda da pintura</t>
   </si>
   <si>
-    <t>Emocionada e acolhida</t>
+    <t>Emocionada</t>
   </si>
   <si>
     <t>Escalda pés, Música de preferência da gestante, Aromaterapia</t>
   </si>
   <si>
-    <t>Flores, Placenta</t>
-  </si>
-  <si>
     <t>9/12/0023</t>
   </si>
   <si>
@@ -703,7 +700,7 @@
     <t>Música de preferência da gestante, Ritual de despedida da barriga, Aromaterapia</t>
   </si>
   <si>
-    <t>Placenta, Flores, Borboleta</t>
+    <t>Placenta, Flores, Borboletas</t>
   </si>
   <si>
     <t xml:space="preserve">Fiquei pensativa </t>
@@ -826,7 +823,7 @@
     <t>Alegria, Amor</t>
   </si>
   <si>
-    <t xml:space="preserve">A placenta representando a árvore da vida </t>
+    <t>Placenta, Árvore</t>
   </si>
   <si>
     <t xml:space="preserve">Esposo e familiares </t>
@@ -874,7 +871,7 @@
     <t>Significante</t>
   </si>
   <si>
-    <t>Bebê, flora para encaixe da natureza pois o símbolo mimo foi o tão esperado leãozinho da família, frases de amor da família</t>
+    <t>Bebê, Leão, Frases de amor da família, Flora</t>
   </si>
   <si>
     <t>Tirei mais fotos, Fiquei admirando, alisei e chorei ao ver aquele mundo externo que estava expressado por nós sendo que dentro eu sabia que teria a melhor surpresa da minha vida.</t>
@@ -919,7 +916,7 @@
     <t>Tranquilidade</t>
   </si>
   <si>
-    <t>pérolas, glitter lilás e roxo tiaras de pérolas</t>
+    <t>Pérolas, Tiara</t>
   </si>
   <si>
     <t>26/03/0024</t>
@@ -940,7 +937,7 @@
     <t>Verde e seus tons, Laranja, Rosa e seus tons, Branco</t>
   </si>
   <si>
-    <t>Ramo de Oliveira e flores</t>
+    <t>Ramo de Oliveira, Flores</t>
   </si>
   <si>
     <t>Sim, a filha</t>
@@ -961,7 +958,7 @@
     <t>Verde e seus tons, Amarelo, Laranja, Branco</t>
   </si>
   <si>
-    <t>Flores e leão</t>
+    <t>Flores, Leão</t>
   </si>
   <si>
     <t>Sim, o esposo</t>
@@ -985,13 +982,10 @@
     <t>Valorização pessoa da gestante, Relaxamento, Busca por informações e proteção do bebê, Imaginar o bebê, Consciência em relação as posições fetais, Buscar conhecer sobre o bebê e seu estado intrauterino (informações, Busca por proximidade com o bebê, Proximidade e conexão com o bebê, Busca por interação com a família, Sentir-se feliz, Sentir-se triste com a perda da pintura</t>
   </si>
   <si>
-    <t>Emocionada</t>
-  </si>
-  <si>
     <t>Verde e seus tons, Azul e seus tons, Amarelo</t>
   </si>
   <si>
-    <t>Sol e folhas</t>
+    <t>Sol, Folhas</t>
   </si>
   <si>
     <t>19/04/0024</t>
@@ -1021,7 +1015,7 @@
     <t>Roxo (violeta) e seus tons, Rosa e seus tons, Branco</t>
   </si>
   <si>
-    <t>Flores, placenta, cordão, terço</t>
+    <t>Flores, Placenta, Cordão umbilical, Terço</t>
   </si>
   <si>
     <t>20/04/0024</t>
@@ -1051,7 +1045,7 @@
     <t>Vermelho e seus tons, Verde e seus tons, Amarelo, Laranja, Roxo (violeta) e seus tons, Rosa e seus tons, Branco</t>
   </si>
   <si>
-    <t>Sol, arco íris, placenta</t>
+    <t>Sol, Arco-íris, Placenta</t>
   </si>
   <si>
     <t>USF Boa Esperança</t>
@@ -1072,7 +1066,7 @@
     <t>Amarelo, Branco</t>
   </si>
   <si>
-    <t>Placenta, ouro</t>
+    <t>Placenta, Ouro</t>
   </si>
   <si>
     <t>USF Treze Maio</t>
@@ -1090,7 +1084,7 @@
     <t>Amarelo, Rosa e seus tons, Branco</t>
   </si>
   <si>
-    <t>Flores, mão da irmã, tiara de flores, estrelas, brinco</t>
+    <t>Flores, Mão da filha, Tiara de flores, Estrelas, Brinco</t>
   </si>
 </sst>
 </file>
@@ -1098,11 +1092,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1133,11 +1127,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1149,8 +1157,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1164,22 +1179,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1203,6 +1211,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1210,45 +1249,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1261,15 +1262,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1278,7 +1272,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,19 +1386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,25 +1398,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,25 +1428,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,97 +1452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1478,10 +1466,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1498,15 +1503,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1528,11 +1524,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1542,21 +1545,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1578,142 +1566,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1723,7 +1711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1737,10 +1725,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1752,11 +1740,8 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2108,10 +2093,10 @@
   </sheetPr>
   <dimension ref="A1:AU40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AE36" sqref="AE36"/>
+      <selection pane="bottomLeft" activeCell="AJ28" sqref="AJ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2138,7 +2123,7 @@
     <col min="32" max="32" width="9.57777777777778" style="2" customWidth="1"/>
     <col min="33" max="33" width="13.437037037037" style="2" customWidth="1"/>
     <col min="34" max="35" width="11.8592592592593" style="2" customWidth="1"/>
-    <col min="36" max="36" width="86.8740740740741" style="2" customWidth="1"/>
+    <col min="36" max="36" width="86.8740740740741" style="5" customWidth="1"/>
     <col min="37" max="37" width="120.8" style="2" customWidth="1"/>
     <col min="38" max="38" width="155.444444444444" style="2" customWidth="1"/>
     <col min="39" max="39" width="11.8592592592593" style="3" customWidth="1"/>
@@ -2146,25 +2131,25 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" spans="1:47">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="8" t="s">
@@ -2173,118 +2158,118 @@
       <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="5" t="s">
         <v>37</v>
       </c>
       <c r="AM1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU1" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2292,35 +2277,35 @@
       <c r="A2" s="7">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>49</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K2" s="7">
         <v>4</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="6" t="s">
+      <c r="M2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O2" s="7">
@@ -2332,102 +2317,102 @@
       <c r="Q2" s="7">
         <v>0</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="6" t="s">
+      <c r="R2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="U2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y2" s="6" t="s">
+      <c r="U2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AA2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AE2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AG2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AH2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AH2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI2" s="5" t="s">
         <v>47</v>
       </c>
       <c r="AM2" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:47">
       <c r="A3" s="7">
         <v>33</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>60</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>62</v>
       </c>
       <c r="K3" s="7">
         <v>4</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="6" t="s">
+      <c r="M3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O3" s="7">
@@ -2439,86 +2424,86 @@
       <c r="Q3" s="7">
         <v>0</v>
       </c>
-      <c r="R3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S3" s="6" t="s">
+      <c r="R3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="U3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y3" s="6" t="s">
+      <c r="U3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="Z3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AA3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AE3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AG3" s="6" t="s">
+      <c r="AG3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AH3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI3" s="6" t="s">
+      <c r="AH3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI3" s="5" t="s">
         <v>47</v>
       </c>
       <c r="AM3" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
-      <c r="AT3" s="6"/>
-      <c r="AU3" s="6"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:47">
       <c r="A4" s="7">
         <v>29</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H4" s="10">
@@ -2527,19 +2512,19 @@
       <c r="I4" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>69</v>
       </c>
       <c r="K4" s="7">
         <v>7</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="6" t="s">
+      <c r="M4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O4" s="7">
@@ -2551,98 +2536,98 @@
       <c r="Q4" s="7">
         <v>0</v>
       </c>
-      <c r="R4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4" s="6" t="s">
+      <c r="R4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="U4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y4" s="6" t="s">
+      <c r="U4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="Z4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AA4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AE4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AF4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AG4" s="6" t="s">
+      <c r="AG4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AH4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ4" s="6" t="s">
+      <c r="AH4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AK4" s="6" t="s">
+      <c r="AK4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AL4" s="6" t="s">
+      <c r="AL4" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AM4" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="6"/>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6"/>
-      <c r="AT4" s="6"/>
-      <c r="AU4" s="6"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:47">
       <c r="A5" s="7">
         <v>27</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>77</v>
       </c>
       <c r="H5" s="8" t="s">
@@ -2651,19 +2636,19 @@
       <c r="I5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>80</v>
       </c>
       <c r="K5" s="7">
         <v>8</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="6" t="s">
+      <c r="M5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O5" s="7">
@@ -2675,92 +2660,92 @@
       <c r="Q5" s="7">
         <v>0</v>
       </c>
-      <c r="R5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S5" s="6" t="s">
+      <c r="R5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="U5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y5" s="6" t="s">
+      <c r="U5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="6" t="s">
+      <c r="Z5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AA5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD5" s="6" t="s">
+      <c r="AA5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AE5" s="6" t="s">
+      <c r="AE5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AF5" s="6" t="s">
+      <c r="AF5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AG5" s="6" t="s">
+      <c r="AG5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AH5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ5" s="6" t="s">
+      <c r="AH5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
         <v>86</v>
       </c>
       <c r="AM5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AN5" s="6"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="6"/>
-      <c r="AQ5" s="6"/>
-      <c r="AR5" s="6"/>
-      <c r="AS5" s="6"/>
-      <c r="AT5" s="6"/>
-      <c r="AU5" s="6"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="5"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:47">
       <c r="A6" s="7">
         <v>31</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>88</v>
       </c>
       <c r="H6" s="10">
@@ -2769,19 +2754,19 @@
       <c r="I6" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>80</v>
       </c>
       <c r="K6" s="7">
         <v>6</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="6" t="s">
+      <c r="M6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O6" s="7">
@@ -2793,89 +2778,89 @@
       <c r="Q6" s="7">
         <v>0</v>
       </c>
-      <c r="R6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S6" s="6" t="s">
+      <c r="R6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="U6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y6" s="6" t="s">
+      <c r="U6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="Z6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD6" s="6" t="s">
+      <c r="AA6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD6" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AE6" s="6" t="s">
+      <c r="AE6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AF6" s="6" t="s">
+      <c r="AF6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ6" s="6" t="s">
+      <c r="AH6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
         <v>91</v>
       </c>
       <c r="AM6" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="AN6" s="6"/>
-      <c r="AO6" s="6"/>
-      <c r="AP6" s="6"/>
-      <c r="AQ6" s="6"/>
-      <c r="AR6" s="6"/>
-      <c r="AS6" s="6"/>
-      <c r="AT6" s="6"/>
-      <c r="AU6" s="6"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:47">
       <c r="A7" s="7">
         <v>25</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>92</v>
       </c>
       <c r="H7" s="8" t="s">
@@ -2884,19 +2869,19 @@
       <c r="I7" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>95</v>
       </c>
       <c r="K7" s="7">
         <v>6</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="6" t="s">
+      <c r="M7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O7" s="7">
@@ -2908,92 +2893,92 @@
       <c r="Q7" s="7">
         <v>1</v>
       </c>
-      <c r="R7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" s="6" t="s">
+      <c r="R7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="U7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y7" s="6" t="s">
+      <c r="U7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z7" s="6" t="s">
+      <c r="Z7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD7" s="6" t="s">
+      <c r="AA7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD7" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AE7" s="6" t="s">
+      <c r="AE7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AF7" s="6" t="s">
+      <c r="AF7" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AG7" s="6" t="s">
+      <c r="AG7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AH7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ7" s="6" t="s">
+      <c r="AH7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ7" s="5" t="s">
         <v>100</v>
       </c>
       <c r="AM7" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:47">
       <c r="A8" s="7">
         <v>23</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H8" s="10">
@@ -3002,19 +2987,19 @@
       <c r="I8" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>103</v>
       </c>
       <c r="K8" s="7">
         <v>4</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="6" t="s">
+      <c r="M8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O8" s="7">
@@ -3026,92 +3011,92 @@
       <c r="Q8" s="7">
         <v>0</v>
       </c>
-      <c r="R8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S8" s="6" t="s">
+      <c r="R8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="T8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y8" s="6" t="s">
+      <c r="T8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z8" s="6" t="s">
+      <c r="Z8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD8" s="6" t="s">
+      <c r="AA8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD8" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AE8" s="6" t="s">
+      <c r="AE8" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AF8" s="6" t="s">
+      <c r="AF8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AG8" s="6" t="s">
+      <c r="AG8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AH8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ8" s="6" t="s">
+      <c r="AH8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
         <v>106</v>
       </c>
       <c r="AM8" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:47">
       <c r="A9" s="7">
         <v>31</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>107</v>
       </c>
       <c r="H9" s="10">
@@ -3120,19 +3105,19 @@
       <c r="I9" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>103</v>
       </c>
       <c r="K9" s="7">
         <v>5</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" s="6" t="s">
+      <c r="M9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O9" s="7">
@@ -3144,89 +3129,89 @@
       <c r="Q9" s="7">
         <v>2</v>
       </c>
-      <c r="R9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S9" s="6" t="s">
+      <c r="R9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="T9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y9" s="6" t="s">
+      <c r="T9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z9" s="6" t="s">
+      <c r="Z9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD9" s="6" t="s">
+      <c r="AA9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD9" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AE9" s="6" t="s">
+      <c r="AE9" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="AF9" s="6" t="s">
+      <c r="AF9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AG9" s="6" t="s">
+      <c r="AG9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AH9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ9" s="6" t="s">
+      <c r="AH9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
         <v>109</v>
       </c>
       <c r="AM9" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="AN9" s="6"/>
-      <c r="AO9" s="6"/>
-      <c r="AP9" s="6"/>
-      <c r="AQ9" s="6"/>
-      <c r="AR9" s="6"/>
-      <c r="AS9" s="6"/>
-      <c r="AT9" s="6"/>
-      <c r="AU9" s="6"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="5"/>
+      <c r="AU9" s="5"/>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:47">
       <c r="A10" s="7">
         <v>27</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>111</v>
       </c>
       <c r="H10" s="10">
@@ -3235,19 +3220,19 @@
       <c r="I10" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="5" t="s">
         <v>80</v>
       </c>
       <c r="K10" s="7">
         <v>4</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="6" t="s">
+      <c r="M10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O10" s="7">
@@ -3259,92 +3244,92 @@
       <c r="Q10" s="7">
         <v>0</v>
       </c>
-      <c r="R10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S10" s="6" t="s">
+      <c r="R10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S10" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="T10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="X10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y10" s="6" t="s">
+      <c r="T10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z10" s="6" t="s">
+      <c r="Z10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AA10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD10" s="6" t="s">
+      <c r="AA10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD10" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AE10" s="6" t="s">
+      <c r="AE10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AF10" s="6" t="s">
+      <c r="AF10" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AG10" s="6" t="s">
+      <c r="AG10" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AH10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ10" s="6" t="s">
+      <c r="AH10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
         <v>116</v>
       </c>
       <c r="AM10" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="AN10" s="6"/>
-      <c r="AO10" s="6"/>
-      <c r="AP10" s="6"/>
-      <c r="AQ10" s="6"/>
-      <c r="AR10" s="6"/>
-      <c r="AS10" s="6"/>
-      <c r="AT10" s="6"/>
-      <c r="AU10" s="6"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="5"/>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:47">
       <c r="A11" s="7">
         <v>19</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>117</v>
       </c>
       <c r="H11" s="10">
@@ -3353,19 +3338,19 @@
       <c r="I11" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="5" t="s">
         <v>118</v>
       </c>
       <c r="K11" s="7">
         <v>3</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11" s="6" t="s">
+      <c r="M11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O11" s="7">
@@ -3377,92 +3362,92 @@
       <c r="Q11" s="7">
         <v>0</v>
       </c>
-      <c r="R11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S11" s="6" t="s">
+      <c r="R11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="T11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="W11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y11" s="6" t="s">
+      <c r="T11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z11" s="6" t="s">
+      <c r="Z11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD11" s="6" t="s">
+      <c r="AA11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="AE11" s="6" t="s">
+      <c r="AE11" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="AF11" s="6" t="s">
+      <c r="AF11" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AG11" s="6" t="s">
+      <c r="AG11" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="AH11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ11" s="6" t="s">
+      <c r="AH11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ11" s="5" t="s">
         <v>122</v>
       </c>
       <c r="AM11" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="AN11" s="6"/>
-      <c r="AO11" s="6"/>
-      <c r="AP11" s="6"/>
-      <c r="AQ11" s="6"/>
-      <c r="AR11" s="6"/>
-      <c r="AS11" s="6"/>
-      <c r="AT11" s="6"/>
-      <c r="AU11" s="6"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="5"/>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:47">
       <c r="A12" s="7">
         <v>17</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>124</v>
       </c>
       <c r="H12" s="10">
@@ -3471,19 +3456,19 @@
       <c r="I12" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>125</v>
       </c>
       <c r="K12" s="7">
         <v>4</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" s="6" t="s">
+      <c r="M12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O12" s="7">
@@ -3495,89 +3480,89 @@
       <c r="Q12" s="7">
         <v>0</v>
       </c>
-      <c r="R12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S12" s="6" t="s">
+      <c r="R12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="T12" s="6" t="s">
+      <c r="T12" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="U12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="W12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="X12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y12" s="6" t="s">
+      <c r="U12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Z12" s="6" t="s">
+      <c r="Z12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AA12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD12" s="6" t="s">
+      <c r="AA12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD12" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="AE12" s="6" t="s">
+      <c r="AE12" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AF12" s="6" t="s">
+      <c r="AF12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AH12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ12" s="6" t="s">
+      <c r="AH12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ12" s="5" t="s">
         <v>129</v>
       </c>
       <c r="AM12" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="6"/>
-      <c r="AP12" s="6"/>
-      <c r="AQ12" s="6"/>
-      <c r="AR12" s="6"/>
-      <c r="AS12" s="6"/>
-      <c r="AT12" s="6"/>
-      <c r="AU12" s="6"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="5"/>
+      <c r="AU12" s="5"/>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:47">
       <c r="A13" s="7">
         <v>26</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>130</v>
       </c>
       <c r="H13" s="10">
@@ -3586,19 +3571,19 @@
       <c r="I13" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="5" t="s">
         <v>118</v>
       </c>
       <c r="K13" s="7">
         <v>6</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" s="6" t="s">
+      <c r="M13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O13" s="7">
@@ -3610,89 +3595,89 @@
       <c r="Q13" s="7">
         <v>0</v>
       </c>
-      <c r="R13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S13" s="6" t="s">
+      <c r="R13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="T13" s="6" t="s">
+      <c r="T13" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="U13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y13" s="6" t="s">
+      <c r="U13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y13" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="Z13" s="6" t="s">
+      <c r="Z13" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AA13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD13" s="6" t="s">
+      <c r="AA13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD13" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AE13" s="6" t="s">
+      <c r="AE13" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AF13" s="6" t="s">
+      <c r="AF13" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="AH13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ13" s="6" t="s">
+      <c r="AH13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ13" s="5" t="s">
         <v>136</v>
       </c>
       <c r="AM13" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="AN13" s="6"/>
-      <c r="AO13" s="6"/>
-      <c r="AP13" s="6"/>
-      <c r="AQ13" s="6"/>
-      <c r="AR13" s="6"/>
-      <c r="AS13" s="6"/>
-      <c r="AT13" s="6"/>
-      <c r="AU13" s="6"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="5"/>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:47">
       <c r="A14" s="7">
         <v>30</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>137</v>
       </c>
       <c r="H14" s="10">
@@ -3701,19 +3686,19 @@
       <c r="I14" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="5" t="s">
         <v>62</v>
       </c>
       <c r="K14" s="7">
         <v>10</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N14" s="6" t="s">
+      <c r="M14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O14" s="7">
@@ -3725,95 +3710,95 @@
       <c r="Q14" s="7">
         <v>0</v>
       </c>
-      <c r="R14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S14" s="6" t="s">
+      <c r="R14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="T14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y14" s="6" t="s">
+      <c r="T14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z14" s="6" t="s">
+      <c r="Z14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD14" s="6" t="s">
+      <c r="AA14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD14" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AE14" s="6" t="s">
+      <c r="AE14" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AF14" s="6" t="s">
+      <c r="AF14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AG14" s="6" t="s">
+      <c r="AG14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AH14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ14" s="6" t="s">
+      <c r="AH14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ14" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="AK14" s="6" t="s">
+      <c r="AK14" s="5" t="s">
         <v>140</v>
       </c>
       <c r="AM14" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="6"/>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="6"/>
-      <c r="AT14" s="6"/>
-      <c r="AU14" s="6"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="5"/>
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:47">
       <c r="A15" s="7">
         <v>32</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>141</v>
       </c>
       <c r="H15" s="10">
@@ -3822,19 +3807,19 @@
       <c r="I15" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>80</v>
       </c>
       <c r="K15" s="7">
         <v>5</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N15" s="6" t="s">
+      <c r="M15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O15" s="7">
@@ -3846,98 +3831,98 @@
       <c r="Q15" s="7">
         <v>0</v>
       </c>
-      <c r="R15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S15" s="6" t="s">
+      <c r="R15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="T15" s="6" t="s">
+      <c r="T15" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="U15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y15" s="6" t="s">
+      <c r="U15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z15" s="6" t="s">
+      <c r="Z15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD15" s="6" t="s">
+      <c r="AA15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD15" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AE15" s="6" t="s">
+      <c r="AE15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AF15" s="6" t="s">
+      <c r="AF15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AG15" s="6" t="s">
+      <c r="AG15" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AH15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ15" s="6" t="s">
+      <c r="AH15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ15" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="AK15" s="6" t="s">
+      <c r="AK15" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AL15" s="6" t="s">
+      <c r="AL15" s="5" t="s">
         <v>145</v>
       </c>
       <c r="AM15" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="AN15" s="6"/>
-      <c r="AO15" s="6"/>
-      <c r="AP15" s="6"/>
-      <c r="AQ15" s="6"/>
-      <c r="AR15" s="6"/>
-      <c r="AS15" s="6"/>
-      <c r="AT15" s="6"/>
-      <c r="AU15" s="6"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="5"/>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:47">
       <c r="A16" s="7">
         <v>20</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>147</v>
       </c>
       <c r="H16" s="10">
@@ -3946,19 +3931,19 @@
       <c r="I16" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="5" t="s">
         <v>118</v>
       </c>
       <c r="K16" s="7">
         <v>9</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N16" s="6" t="s">
+      <c r="M16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O16" s="7">
@@ -3970,92 +3955,92 @@
       <c r="Q16" s="7">
         <v>0</v>
       </c>
-      <c r="R16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S16" s="6" t="s">
+      <c r="R16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="T16" s="6" t="s">
+      <c r="T16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="U16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="W16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y16" s="6" t="s">
+      <c r="U16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y16" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="Z16" s="6" t="s">
+      <c r="Z16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AA16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD16" s="6" t="s">
+      <c r="AA16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD16" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="AE16" s="6" t="s">
+      <c r="AE16" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="AF16" s="6" t="s">
+      <c r="AF16" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AG16" s="6" t="s">
+      <c r="AG16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AH16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ16" s="11" t="s">
+      <c r="AH16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ16" s="5" t="s">
         <v>151</v>
       </c>
       <c r="AM16" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="AN16" s="6"/>
-      <c r="AO16" s="6"/>
-      <c r="AP16" s="6"/>
-      <c r="AQ16" s="6"/>
-      <c r="AR16" s="6"/>
-      <c r="AS16" s="6"/>
-      <c r="AT16" s="6"/>
-      <c r="AU16" s="6"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="5"/>
+      <c r="AT16" s="5"/>
+      <c r="AU16" s="5"/>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:47">
       <c r="A17" s="7">
         <v>31</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>153</v>
       </c>
       <c r="H17" s="10">
@@ -4064,19 +4049,19 @@
       <c r="I17" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>103</v>
       </c>
       <c r="K17" s="7">
         <v>10</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N17" s="6" t="s">
+      <c r="M17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O17" s="7">
@@ -4088,92 +4073,92 @@
       <c r="Q17" s="7">
         <v>1</v>
       </c>
-      <c r="R17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S17" s="6" t="s">
+      <c r="R17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="T17" s="6" t="s">
+      <c r="T17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="U17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="W17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="X17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y17" s="6" t="s">
+      <c r="U17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z17" s="6" t="s">
+      <c r="Z17" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="AA17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD17" s="6" t="s">
+      <c r="AA17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD17" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="AE17" s="6" t="s">
+      <c r="AE17" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="AF17" s="6" t="s">
+      <c r="AF17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AG17" s="6" t="s">
+      <c r="AG17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AH17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ17" s="6" t="s">
+      <c r="AH17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
         <v>157</v>
       </c>
       <c r="AM17" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="AN17" s="6"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="6"/>
-      <c r="AQ17" s="6"/>
-      <c r="AR17" s="6"/>
-      <c r="AS17" s="6"/>
-      <c r="AT17" s="6"/>
-      <c r="AU17" s="6"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="5"/>
+      <c r="AU17" s="5"/>
     </row>
     <row r="18" ht="18.75" customHeight="1" spans="1:47">
       <c r="A18" s="7">
         <v>24</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>158</v>
       </c>
       <c r="H18" s="10">
@@ -4182,19 +4167,19 @@
       <c r="I18" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="5" t="s">
         <v>159</v>
       </c>
       <c r="K18" s="7">
         <v>7</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N18" s="6" t="s">
+      <c r="M18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O18" s="7">
@@ -4206,95 +4191,95 @@
       <c r="Q18" s="7">
         <v>0</v>
       </c>
-      <c r="R18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S18" s="6" t="s">
+      <c r="R18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S18" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="T18" s="6" t="s">
+      <c r="T18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="U18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="W18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y18" s="6" t="s">
+      <c r="U18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z18" s="6" t="s">
+      <c r="Z18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD18" s="6" t="s">
+      <c r="AA18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD18" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="AE18" s="6" t="s">
+      <c r="AE18" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="AF18" s="6" t="s">
+      <c r="AF18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AG18" s="6" t="s">
+      <c r="AG18" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AH18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ18" s="6" t="s">
+      <c r="AH18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ18" s="5" t="s">
         <v>162</v>
       </c>
       <c r="AM18" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="AN18" s="6"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="6"/>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="6"/>
-      <c r="AT18" s="6"/>
-      <c r="AU18" s="6"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="5"/>
+      <c r="AS18" s="5"/>
+      <c r="AT18" s="5"/>
+      <c r="AU18" s="5"/>
     </row>
     <row r="19" ht="16.5" customHeight="1" spans="1:40">
       <c r="A19" s="7">
         <v>31</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>165</v>
       </c>
       <c r="H19" s="10">
@@ -4303,19 +4288,19 @@
       <c r="I19" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="5" t="s">
         <v>166</v>
       </c>
       <c r="K19" s="7">
         <v>8</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N19" s="6" t="s">
+      <c r="M19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O19" s="7">
@@ -4327,111 +4312,111 @@
       <c r="Q19" s="7">
         <v>0</v>
       </c>
-      <c r="R19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S19" s="6" t="s">
+      <c r="R19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="T19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="W19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y19" s="6" t="s">
+      <c r="T19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z19" s="6" t="s">
+      <c r="Z19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AA19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD19" s="6" t="s">
+      <c r="AA19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD19" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="AE19" s="6" t="s">
+      <c r="AE19" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="AF19" s="6" t="s">
+      <c r="AF19" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AG19" s="6" t="s">
+      <c r="AG19" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="AH19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ19" s="6" t="s">
+      <c r="AH19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ19" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM19" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="AM19" s="8" t="s">
+      <c r="AN19" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="AN19" s="6" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="1:40">
       <c r="A20" s="7">
         <v>15</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H20" s="10">
+        <v>25568.8755208333</v>
+      </c>
+      <c r="I20" s="10">
+        <v>25568.8755208333</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="H20" s="10">
-        <v>25568.8755208333</v>
-      </c>
-      <c r="I20" s="10">
-        <v>25568.8755208333</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="K20" s="7">
         <v>4</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N20" s="6" t="s">
+      <c r="M20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" s="5" t="s">
         <v>52</v>
       </c>
       <c r="O20" s="7">
@@ -4443,111 +4428,111 @@
       <c r="Q20" s="7">
         <v>0</v>
       </c>
-      <c r="R20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S20" s="6" t="s">
+      <c r="R20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="T20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="W20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="X20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y20" s="6" t="s">
+      <c r="T20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z20" s="6" t="s">
+      <c r="Z20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD20" s="6" t="s">
+      <c r="AA20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD20" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF20" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="AE20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF20" s="6" t="s">
+      <c r="AG20" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="AG20" s="6" t="s">
+      <c r="AH20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ20" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="AH20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ20" s="6" t="s">
+      <c r="AM20" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN20" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="AM20" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN20" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:39">
       <c r="A21" s="7">
         <v>22</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="I21" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="J21" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="K21" s="7">
         <v>7</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N21" s="6" t="s">
+      <c r="M21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N21" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O21" s="7">
@@ -4559,105 +4544,105 @@
       <c r="Q21" s="7">
         <v>0</v>
       </c>
-      <c r="R21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S21" s="6" t="s">
+      <c r="R21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="T21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="W21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="X21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y21" s="6" t="s">
+      <c r="T21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Z21" s="6" t="s">
+      <c r="Z21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD21" s="6" t="s">
+      <c r="AA21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD21" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE21" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="AE21" s="6" t="s">
+      <c r="AF21" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="AF21" s="6" t="s">
+      <c r="AG21" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ21" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="AG21" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AH21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ21" s="6" t="s">
-        <v>187</v>
-      </c>
       <c r="AM21" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1" spans="1:40">
       <c r="A22" s="7">
         <v>39</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H22" s="10">
+        <v>25568.8755208333</v>
+      </c>
+      <c r="I22" s="10">
+        <v>25568.8755208333</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="H22" s="10">
-        <v>25568.8755208333</v>
-      </c>
-      <c r="I22" s="10">
-        <v>25568.8755208333</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="K22" s="7">
         <v>11</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N22" s="6" t="s">
+      <c r="M22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O22" s="7">
@@ -4669,114 +4654,114 @@
       <c r="Q22" s="7">
         <v>1</v>
       </c>
-      <c r="R22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S22" s="6" t="s">
+      <c r="R22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="T22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y22" s="6" t="s">
+      <c r="T22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Z22" s="6" t="s">
+      <c r="Z22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD22" s="6" t="s">
+      <c r="AA22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD22" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ22" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="AE22" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF22" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ22" s="6" t="s">
+      <c r="AK22" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="AK22" s="6" t="s">
+      <c r="AL22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM22" s="10">
+        <v>25568.8755208333</v>
+      </c>
+      <c r="AN22" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="AL22" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM22" s="10">
-        <v>25568.8755208333</v>
-      </c>
-      <c r="AN22" s="6" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1" spans="1:40">
       <c r="A23" s="7">
         <v>36</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H23" s="10">
+        <v>25568.8755208333</v>
+      </c>
+      <c r="I23" s="10">
+        <v>25568.8755208333</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="H23" s="10">
-        <v>25568.8755208333</v>
-      </c>
-      <c r="I23" s="10">
-        <v>25568.8755208333</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="K23" s="7">
         <v>10</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N23" s="6" t="s">
+      <c r="M23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O23" s="7">
@@ -4788,108 +4773,108 @@
       <c r="Q23" s="7">
         <v>0</v>
       </c>
-      <c r="R23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S23" s="6" t="s">
+      <c r="R23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="T23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="W23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y23" s="6" t="s">
+      <c r="T23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD23" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="Z23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD23" s="6" t="s">
+      <c r="AE23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF23" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="AE23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF23" s="6" t="s">
+      <c r="AG23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ23" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="AG23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ23" s="6" t="s">
+      <c r="AM23" s="10">
+        <v>25568.8755208333</v>
+      </c>
+      <c r="AN23" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="AM23" s="10">
-        <v>25568.8755208333</v>
-      </c>
-      <c r="AN23" s="6" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1" spans="1:47">
       <c r="A24" s="7">
         <v>25</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H24" s="10">
+        <v>25568.8755208333</v>
+      </c>
+      <c r="I24" s="10">
+        <v>25568.8755208333</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="H24" s="10">
-        <v>25568.8755208333</v>
-      </c>
-      <c r="I24" s="10">
-        <v>25568.8755208333</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="K24" s="7">
         <v>4</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N24" s="6" t="s">
+      <c r="M24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N24" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O24" s="7">
@@ -4901,120 +4886,120 @@
       <c r="Q24" s="7">
         <v>0</v>
       </c>
-      <c r="R24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S24" s="6" t="s">
+      <c r="R24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S24" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="T24" s="6" t="s">
+      <c r="T24" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="U24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y24" s="6" t="s">
+      <c r="U24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y24" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD24" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="Z24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD24" s="6" t="s">
+      <c r="AE24" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AE24" s="6" t="s">
+      <c r="AF24" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="AF24" s="6" t="s">
+      <c r="AG24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ24" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="AG24" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ24" s="6" t="s">
+      <c r="AM24" s="10">
+        <v>25568.8755208333</v>
+      </c>
+      <c r="AN24" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AM24" s="10">
-        <v>25568.8755208333</v>
-      </c>
-      <c r="AN24" s="6" t="s">
+      <c r="AO24" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="AO24" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="AP24" s="6"/>
-      <c r="AQ24" s="6"/>
-      <c r="AR24" s="6"/>
-      <c r="AS24" s="6"/>
-      <c r="AT24" s="6"/>
-      <c r="AU24" s="6"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="5"/>
+      <c r="AU24" s="5"/>
     </row>
     <row r="25" ht="18.75" customHeight="1" spans="1:47">
       <c r="A25" s="7">
         <v>27</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="H25" s="10">
+        <v>25568.8755208333</v>
+      </c>
+      <c r="I25" s="10">
+        <v>25568.8755208333</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="H25" s="10">
-        <v>25568.8755208333</v>
-      </c>
-      <c r="I25" s="10">
-        <v>25568.8755208333</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="K25" s="7">
         <v>9</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N25" s="6" t="s">
+      <c r="M25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O25" s="7">
@@ -5026,91 +5011,91 @@
       <c r="Q25" s="7">
         <v>0</v>
       </c>
-      <c r="R25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S25" s="6" t="s">
+      <c r="R25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="T25" s="6" t="s">
+      <c r="T25" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="U25" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y25" s="6" t="s">
+      <c r="U25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z25" s="6" t="s">
+      <c r="Z25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA25" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB25" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD25" s="6" t="s">
+      <c r="AA25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD25" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE25" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="AE25" s="6" t="s">
+      <c r="AF25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG25" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="AF25" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG25" s="6" t="s">
+      <c r="AH25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ25" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="AH25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ25" s="6" t="s">
+      <c r="AK25" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL25" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="AK25" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL25" s="6" t="s">
+      <c r="AM25" s="10">
+        <v>25568.8755208333</v>
+      </c>
+      <c r="AO25" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="AM25" s="10">
-        <v>25568.8755208333</v>
-      </c>
-      <c r="AO25" s="6" t="s">
+      <c r="AP25" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="AP25" s="6" t="s">
+      <c r="AQ25" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="AQ25" s="6" t="s">
+      <c r="AR25" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="AR25" s="6" t="s">
+      <c r="AS25" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="AS25" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="AT25" s="6" t="s">
+      <c r="AT25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AU25" s="6" t="s">
+      <c r="AU25" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5118,43 +5103,43 @@
       <c r="A26" s="7">
         <v>21</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H26" s="10">
+        <v>25568.8755208333</v>
+      </c>
+      <c r="I26" s="10">
+        <v>25568.8755208333</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="H26" s="10">
-        <v>25568.8755208333</v>
-      </c>
-      <c r="I26" s="10">
-        <v>25568.8755208333</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>225</v>
       </c>
       <c r="K26" s="7">
         <v>9</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N26" s="6" t="s">
+      <c r="M26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N26" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O26" s="7">
@@ -5166,91 +5151,91 @@
       <c r="Q26" s="7">
         <v>0</v>
       </c>
-      <c r="R26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S26" s="6" t="s">
+      <c r="R26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="T26" s="6" t="s">
+      <c r="T26" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="U26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="W26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y26" s="6" t="s">
+      <c r="U26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z26" s="6" t="s">
+      <c r="Z26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD26" s="6" t="s">
+      <c r="AA26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD26" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE26" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="AE26" s="6" t="s">
+      <c r="AF26" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG26" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="AF26" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG26" s="6" t="s">
+      <c r="AH26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ26" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="AH26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ26" s="6" t="s">
+      <c r="AK26" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="AK26" s="6" t="s">
+      <c r="AL26" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="AL26" s="6" t="s">
+      <c r="AM26" s="10">
+        <v>25568.8755208333</v>
+      </c>
+      <c r="AO26" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="AM26" s="10">
-        <v>25568.8755208333</v>
-      </c>
-      <c r="AO26" s="6" t="s">
+      <c r="AP26" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ26" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="AP26" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ26" s="6" t="s">
+      <c r="AR26" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AR26" s="6" t="s">
+      <c r="AS26" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="AS26" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="AT26" s="6" t="s">
+      <c r="AT26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AU26" s="6" t="s">
+      <c r="AU26" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5258,43 +5243,43 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F27" s="6" t="s">
+      <c r="C27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>111</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>61</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="J27" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>69</v>
       </c>
       <c r="K27" s="7">
         <v>12</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N27" s="6" t="s">
+      <c r="M27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N27" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O27" s="7">
@@ -5306,94 +5291,94 @@
       <c r="Q27" s="7">
         <v>0</v>
       </c>
-      <c r="R27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S27" s="6" t="s">
+      <c r="R27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S27" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="T27" s="6" t="s">
+      <c r="T27" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="U27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="X27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y27" s="6" t="s">
+      <c r="U27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y27" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z27" s="6" t="s">
+      <c r="Z27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AA27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD27" s="6" t="s">
+      <c r="AA27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD27" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF27" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="AE27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF27" s="6" t="s">
+      <c r="AG27" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ27" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="AG27" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="AH27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ27" s="6" t="s">
+      <c r="AK27" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="AK27" s="6" t="s">
+      <c r="AL27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM27" s="10">
+        <v>25568.8755208333</v>
+      </c>
+      <c r="AN27" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="AL27" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM27" s="10">
-        <v>25568.8755208333</v>
-      </c>
-      <c r="AN27" s="6" t="s">
+      <c r="AO27" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AO27" s="6" t="s">
+      <c r="AP27" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ27" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="AP27" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ27" s="6" t="s">
+      <c r="AR27" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="AR27" s="6" t="s">
+      <c r="AS27" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="AS27" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="AT27" s="6" t="s">
+      <c r="AT27" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AU27" s="6" t="s">
+      <c r="AU27" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5401,43 +5386,43 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F28" s="6" t="s">
+      <c r="C28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H28" s="10">
+        <v>25568.8755208333</v>
+      </c>
+      <c r="I28" s="10">
+        <v>25568.8755208333</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="H28" s="10">
-        <v>25568.8755208333</v>
-      </c>
-      <c r="I28" s="10">
-        <v>25568.8755208333</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>248</v>
       </c>
       <c r="K28" s="7">
         <v>11</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N28" s="6" t="s">
+      <c r="M28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N28" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O28" s="7">
@@ -5449,88 +5434,88 @@
       <c r="Q28" s="7">
         <v>0</v>
       </c>
-      <c r="R28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S28" s="6" t="s">
+      <c r="R28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD28" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="T28" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="U28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y28" s="6" t="s">
+      <c r="AE28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ28" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AK28" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM28" s="10">
+        <v>25568.8755208333</v>
+      </c>
+      <c r="AO28" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AP28" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ28" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR28" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AT28" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD28" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF28" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG28" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ28" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK28" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="AL28" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM28" s="10">
-        <v>25568.8755208333</v>
-      </c>
-      <c r="AO28" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="AP28" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ28" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AR28" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AT28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU28" s="6" t="s">
+      <c r="AU28" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5538,43 +5523,43 @@
       <c r="A29" s="7">
         <v>24</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="C29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>256</v>
-      </c>
       <c r="H29" s="10">
         <v>25568.8755208333</v>
       </c>
       <c r="I29" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>248</v>
+      <c r="J29" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="K29" s="7">
         <v>23</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M29" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N29" s="6" t="s">
+      <c r="M29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N29" s="5" t="s">
         <v>52</v>
       </c>
       <c r="O29" s="7">
@@ -5586,91 +5571,91 @@
       <c r="Q29" s="7">
         <v>0</v>
       </c>
-      <c r="R29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="T29" s="6" t="s">
+      <c r="R29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="T29" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="U29" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X29" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y29" s="6" t="s">
+      <c r="U29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y29" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD29" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="Z29" s="6" t="s">
+      <c r="AE29" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG29" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ29" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK29" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="AL29" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="AM29" s="10">
+        <v>25568.8755208333</v>
+      </c>
+      <c r="AO29" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AP29" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ29" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AR29" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="AS29" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AT29" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD29" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AE29" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="AF29" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG29" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="AH29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ29" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AK29" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AL29" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="AM29" s="10">
-        <v>25568.8755208333</v>
-      </c>
-      <c r="AO29" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="AP29" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ29" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="AR29" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="AS29" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="AT29" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU29" s="6" t="s">
+      <c r="AU29" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5678,43 +5663,43 @@
       <c r="A30" s="7">
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="C30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>268</v>
-      </c>
       <c r="H30" s="10">
         <v>25568.8755208333</v>
       </c>
       <c r="I30" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="5" t="s">
         <v>69</v>
       </c>
       <c r="K30" s="7">
         <v>8</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M30" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N30" s="6" t="s">
+      <c r="M30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O30" s="7">
@@ -5726,88 +5711,88 @@
       <c r="Q30" s="7">
         <v>0</v>
       </c>
-      <c r="R30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S30" s="6" t="s">
+      <c r="R30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S30" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="T30" s="6" t="s">
+      <c r="T30" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="U30" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W30" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="X30" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y30" s="6" t="s">
+      <c r="U30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z30" s="6" t="s">
+      <c r="Z30" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ30" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="AA30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD30" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE30" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG30" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ30" s="6" t="s">
+      <c r="AK30" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM30" s="10">
+        <v>25568.8755208333</v>
+      </c>
+      <c r="AO30" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="AK30" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL30" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM30" s="10">
-        <v>25568.8755208333</v>
-      </c>
-      <c r="AO30" s="6" t="s">
+      <c r="AP30" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ30" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="AP30" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ30" s="6" t="s">
+      <c r="AR30" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="AR30" s="6" t="s">
+      <c r="AS30" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="AS30" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="AT30" s="6" t="s">
+      <c r="AT30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AU30" s="6" t="s">
+      <c r="AU30" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5815,20 +5800,20 @@
       <c r="A31" s="7">
         <v>21</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="C31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>275</v>
+      <c r="G31" s="5" t="s">
+        <v>274</v>
       </c>
       <c r="H31" s="10">
         <v>25568.8755208333</v>
@@ -5836,19 +5821,19 @@
       <c r="I31" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="5" t="s">
         <v>80</v>
       </c>
       <c r="K31" s="7">
         <v>5</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M31" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N31" s="6" t="s">
+      <c r="M31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N31" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O31" s="7">
@@ -5860,73 +5845,73 @@
       <c r="Q31" s="7">
         <v>0</v>
       </c>
-      <c r="R31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S31" s="6" t="s">
+      <c r="R31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S31" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="T31" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U31" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y31" s="6" t="s">
+      <c r="T31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z31" s="6" t="s">
+      <c r="Z31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB31" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD31" s="6" t="s">
+      <c r="AA31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD31" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE31" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="AE31" s="6" t="s">
+      <c r="AF31" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ31" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM31" s="10">
+        <v>25568.8755208333</v>
+      </c>
+      <c r="AN31" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="AF31" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG31" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ31" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM31" s="10">
-        <v>25568.8755208333</v>
-      </c>
-      <c r="AN31" s="6" t="s">
+      <c r="AP31" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="AP31" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="AU31" s="6" t="s">
+      <c r="AU31" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5934,43 +5919,43 @@
       <c r="A32" s="7">
         <v>34</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="6" t="s">
+      <c r="C32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>281</v>
-      </c>
       <c r="H32" s="10">
         <v>25568.8755208333</v>
       </c>
       <c r="I32" s="10">
         <v>25568.8755208333</v>
       </c>
-      <c r="J32" s="6" t="s">
-        <v>248</v>
+      <c r="J32" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="K32" s="7">
         <v>15</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M32" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N32" s="6" t="s">
+      <c r="M32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N32" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O32" s="7">
@@ -5982,94 +5967,94 @@
       <c r="Q32" s="7">
         <v>0</v>
       </c>
-      <c r="R32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S32" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="T32" s="6" t="s">
+      <c r="R32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="T32" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="U32" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y32" s="6" t="s">
+      <c r="U32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y32" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z32" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="Z32" s="6" t="s">
+      <c r="AA32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD32" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="AA32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD32" s="6" t="s">
+      <c r="AE32" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AE32" s="6" t="s">
+      <c r="AF32" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG32" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ32" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AF32" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="AG32" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="AH32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ32" s="11" t="s">
+      <c r="AK32" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="AK32" s="6" t="s">
+      <c r="AL32" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="AL32" s="6" t="s">
+      <c r="AM32" s="10">
+        <v>25568.8755208333</v>
+      </c>
+      <c r="AN32" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="AM32" s="10">
-        <v>25568.8755208333</v>
-      </c>
-      <c r="AN32" s="6" t="s">
+      <c r="AO32" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="AO32" s="6" t="s">
+      <c r="AP32" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ32" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="AP32" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ32" s="6" t="s">
+      <c r="AR32" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="AR32" s="6" t="s">
+      <c r="AS32" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="AS32" s="6" t="s">
+      <c r="AT32" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="AT32" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="AU32" s="6" t="s">
+      <c r="AU32" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6077,41 +6062,41 @@
       <c r="A33" s="7">
         <v>23</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="C33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6" t="s">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="H33" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="I33" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="J33" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="K33" s="7">
         <v>3</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M33" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N33" s="6" t="s">
+      <c r="M33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N33" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O33" s="7">
@@ -6123,82 +6108,82 @@
       <c r="Q33" s="7">
         <v>0</v>
       </c>
-      <c r="R33" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S33" s="6" t="s">
+      <c r="R33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y33" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="T33" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U33" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V33" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="W33" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="X33" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y33" s="6" t="s">
+      <c r="Z33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF33" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ33" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="Z33" s="6" t="s">
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="AN33" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB33" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD33" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE33" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF33" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG33" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ33" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="AK33" s="6"/>
-      <c r="AL33" s="6"/>
-      <c r="AM33" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="AN33" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="AO33" s="6"/>
-      <c r="AP33" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="AQ33" s="6"/>
-      <c r="AR33" s="6"/>
-      <c r="AS33" s="6"/>
-      <c r="AT33" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU33" s="6" t="s">
+      <c r="AU33" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6206,19 +6191,19 @@
       <c r="A34" s="7">
         <v>32</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6" t="s">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6" t="s">
+      <c r="E34" s="5"/>
+      <c r="F34" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>304</v>
+      <c r="G34" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="H34" s="10">
         <v>45133</v>
@@ -6226,19 +6211,19 @@
       <c r="I34" s="10">
         <v>45413</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>298</v>
+      <c r="J34" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="K34" s="7">
         <v>9</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="L34" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N34" s="6" t="s">
+      <c r="M34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N34" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O34" s="7">
@@ -6250,82 +6235,82 @@
       <c r="Q34" s="7">
         <v>0</v>
       </c>
-      <c r="R34" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S34" s="6" t="s">
+      <c r="R34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="T34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="W34" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y34" s="6" t="s">
+      <c r="T34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y34" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z34" s="6" t="s">
+      <c r="Z34" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA34" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC34" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD34" s="6" t="s">
+      <c r="AA34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD34" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE34" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AE34" s="6" t="s">
+      <c r="AF34" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="AF34" s="6" t="s">
+      <c r="AG34" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ34" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="AG34" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH34" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI34" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ34" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="AK34" s="6"/>
-      <c r="AL34" s="6"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
       <c r="AM34" s="10">
         <v>45387</v>
       </c>
-      <c r="AN34" s="6" t="s">
+      <c r="AN34" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ34" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="AO34" s="6"/>
-      <c r="AP34" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ34" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="AR34" s="6"/>
-      <c r="AS34" s="6"/>
-      <c r="AT34" s="6"/>
-      <c r="AU34" s="6" t="s">
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6333,21 +6318,21 @@
       <c r="A35" s="7">
         <v>26</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="C35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6" t="s">
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>311</v>
+      <c r="G35" s="5" t="s">
+        <v>310</v>
       </c>
       <c r="H35" s="10">
         <v>45132</v>
@@ -6355,19 +6340,19 @@
       <c r="I35" s="10">
         <v>45418</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="5" t="s">
         <v>80</v>
       </c>
       <c r="K35" s="7">
         <v>7</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="L35" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N35" s="6" t="s">
+      <c r="M35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N35" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O35" s="7">
@@ -6379,82 +6364,82 @@
       <c r="Q35" s="7">
         <v>0</v>
       </c>
-      <c r="R35" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S35" s="6" t="s">
+      <c r="R35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="T35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="W35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="X35" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y35" s="6" t="s">
+      <c r="T35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y35" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z35" s="6" t="s">
+      <c r="Z35" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA35" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB35" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC35" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD35" s="6" t="s">
+      <c r="AA35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD35" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE35" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="AE35" s="6" t="s">
+      <c r="AF35" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="AF35" s="6" t="s">
+      <c r="AG35" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ35" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="AG35" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH35" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI35" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ35" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="AK35" s="6"/>
-      <c r="AL35" s="6"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
       <c r="AM35" s="10">
         <v>45387</v>
       </c>
-      <c r="AN35" s="6" t="s">
+      <c r="AN35" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ35" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="AO35" s="6"/>
-      <c r="AP35" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ35" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="AR35" s="6"/>
-      <c r="AS35" s="6"/>
-      <c r="AT35" s="6"/>
-      <c r="AU35" s="6" t="s">
+      <c r="AR35" s="5"/>
+      <c r="AS35" s="5"/>
+      <c r="AT35" s="5"/>
+      <c r="AU35" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6462,41 +6447,41 @@
       <c r="A36" s="7">
         <v>25</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="C36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6" t="s">
+      <c r="E36" s="5"/>
+      <c r="F36" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="H36" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="I36" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="J36" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>321</v>
       </c>
       <c r="K36" s="7">
         <v>7</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L36" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M36" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N36" s="6" t="s">
+      <c r="M36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N36" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O36" s="7">
@@ -6508,82 +6493,82 @@
       <c r="Q36" s="7">
         <v>0</v>
       </c>
-      <c r="R36" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S36" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="T36" s="6" t="s">
+      <c r="R36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="T36" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="U36" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V36" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="W36" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="X36" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y36" s="6" t="s">
+      <c r="U36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y36" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Z36" s="6" t="s">
+      <c r="Z36" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AA36" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB36" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC36" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD36" s="6" t="s">
+      <c r="AA36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD36" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="AE36" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF36" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="AE36" s="6" t="s">
+      <c r="AG36" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ36" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="AF36" s="6" t="s">
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="AG36" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH36" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI36" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ36" s="11" t="s">
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="AK36" s="6"/>
-      <c r="AL36" s="6"/>
-      <c r="AM36" s="10" t="s">
+      <c r="AP36" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ36" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="AN36" s="6"/>
-      <c r="AO36" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="AP36" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ36" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="AR36" s="6"/>
-      <c r="AS36" s="6"/>
-      <c r="AT36" s="6"/>
-      <c r="AU36" s="6" t="s">
+      <c r="AR36" s="5"/>
+      <c r="AS36" s="5"/>
+      <c r="AT36" s="5"/>
+      <c r="AU36" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6591,21 +6576,21 @@
       <c r="A37" s="7">
         <v>32</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="C37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6" t="s">
+      <c r="E37" s="5"/>
+      <c r="F37" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="6" t="s">
-        <v>329</v>
+      <c r="G37" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="H37" s="10">
         <v>45195</v>
@@ -6613,19 +6598,19 @@
       <c r="I37" s="10">
         <v>45478</v>
       </c>
-      <c r="J37" s="6" t="s">
-        <v>330</v>
+      <c r="J37" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="K37" s="7">
         <v>6</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="L37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M37" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N37" s="6" t="s">
+      <c r="M37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N37" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O37" s="7">
@@ -6637,82 +6622,82 @@
       <c r="Q37" s="7">
         <v>1</v>
       </c>
-      <c r="R37" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S37" s="6" t="s">
+      <c r="R37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD37" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE37" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="T37" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U37" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V37" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W37" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="X37" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y37" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z37" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA37" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB37" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC37" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD37" s="6" t="s">
+      <c r="AF37" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="AE37" s="6" t="s">
+      <c r="AG37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ37" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="AF37" s="6" t="s">
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
+      <c r="AM37" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="AG37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH37" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI37" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ37" s="11" t="s">
+      <c r="AN37" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="AO37" s="5"/>
+      <c r="AP37" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ37" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AK37" s="6"/>
-      <c r="AL37" s="6"/>
-      <c r="AM37" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="AN37" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="AO37" s="6"/>
-      <c r="AP37" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ37" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="AR37" s="6"/>
-      <c r="AS37" s="6"/>
-      <c r="AT37" s="6"/>
-      <c r="AU37" s="6" t="s">
+      <c r="AR37" s="5"/>
+      <c r="AS37" s="5"/>
+      <c r="AT37" s="5"/>
+      <c r="AU37" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6720,41 +6705,41 @@
       <c r="A38" s="7">
         <v>30</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="C38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6" t="s">
+      <c r="E38" s="5"/>
+      <c r="F38" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="H38" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="I38" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="J38" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>342</v>
       </c>
       <c r="K38" s="7">
         <v>3</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="L38" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N38" s="6" t="s">
+      <c r="M38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N38" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O38" s="7">
@@ -6766,82 +6751,82 @@
       <c r="Q38" s="7">
         <v>1</v>
       </c>
-      <c r="R38" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S38" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="T38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="W38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="X38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y38" s="6" t="s">
+      <c r="R38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y38" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Z38" s="6" t="s">
+      <c r="Z38" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA38" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB38" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC38" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD38" s="6" t="s">
+      <c r="AA38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD38" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE38" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF38" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="AG38" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ38" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="AE38" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF38" s="6" t="s">
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="AN38" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ38" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="AG38" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH38" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI38" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ38" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="AK38" s="6"/>
-      <c r="AL38" s="6"/>
-      <c r="AM38" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="AN38" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="AO38" s="6"/>
-      <c r="AP38" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ38" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="AR38" s="6"/>
-      <c r="AS38" s="6"/>
-      <c r="AT38" s="6"/>
-      <c r="AU38" s="6" t="s">
+      <c r="AR38" s="5"/>
+      <c r="AS38" s="5"/>
+      <c r="AT38" s="5"/>
+      <c r="AU38" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6849,41 +6834,41 @@
       <c r="A39" s="7">
         <v>31</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="C39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6" t="s">
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="I39" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="J39" s="5" t="s">
         <v>348</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>350</v>
       </c>
       <c r="K39" s="7">
         <v>10</v>
       </c>
-      <c r="L39" s="6" t="s">
+      <c r="L39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M39" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N39" s="6" t="s">
+      <c r="M39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N39" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O39" s="7">
@@ -6895,82 +6880,82 @@
       <c r="Q39" s="7">
         <v>0</v>
       </c>
-      <c r="R39" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S39" s="6" t="s">
+      <c r="R39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="T39" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U39" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V39" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W39" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X39" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y39" s="6" t="s">
+      <c r="T39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y39" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z39" s="6" t="s">
+      <c r="Z39" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA39" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB39" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC39" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD39" s="6" t="s">
+      <c r="AA39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD39" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AE39" s="6" t="s">
+      <c r="AE39" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AF39" s="6" t="s">
+      <c r="AF39" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="AG39" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ39" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="AN39" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ39" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="AG39" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH39" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI39" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ39" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="AK39" s="6"/>
-      <c r="AL39" s="6"/>
-      <c r="AM39" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="AN39" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="AO39" s="6"/>
-      <c r="AP39" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ39" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="AR39" s="6"/>
-      <c r="AS39" s="6"/>
-      <c r="AT39" s="6"/>
-      <c r="AU39" s="6" t="s">
+      <c r="AR39" s="5"/>
+      <c r="AS39" s="5"/>
+      <c r="AT39" s="5"/>
+      <c r="AU39" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6978,21 +6963,21 @@
       <c r="A40" s="7">
         <v>28</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="C40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6" t="s">
+      <c r="E40" s="5"/>
+      <c r="F40" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="6" t="s">
-        <v>354</v>
+      <c r="G40" s="5" t="s">
+        <v>352</v>
       </c>
       <c r="H40" s="10">
         <v>45174</v>
@@ -7000,19 +6985,19 @@
       <c r="I40" s="10">
         <v>45490</v>
       </c>
-      <c r="J40" s="6" t="s">
-        <v>330</v>
+      <c r="J40" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="K40" s="7">
         <v>10</v>
       </c>
-      <c r="L40" s="6" t="s">
+      <c r="L40" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N40" s="6" t="s">
+      <c r="M40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N40" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O40" s="7">
@@ -7024,78 +7009,78 @@
       <c r="Q40" s="7">
         <v>0</v>
       </c>
-      <c r="R40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S40" s="6" t="s">
+      <c r="R40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y40" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD40" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AE40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF40" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="T40" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="U40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="W40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="X40" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y40" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z40" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA40" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB40" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC40" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD40" s="6" t="s">
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ40" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="AE40" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF40" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI40" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ40" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="AK40" s="6"/>
-      <c r="AL40" s="6"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
       <c r="AM40" s="10">
         <v>45412</v>
       </c>
-      <c r="AN40" s="6"/>
-      <c r="AO40" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="AP40" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="AQ40" s="6"/>
-      <c r="AR40" s="6"/>
-      <c r="AS40" s="6"/>
-      <c r="AT40" s="6"/>
-      <c r="AU40" s="6" t="s">
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AP40" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="AQ40" s="5"/>
+      <c r="AR40" s="5"/>
+      <c r="AS40" s="5"/>
+      <c r="AT40" s="5"/>
+      <c r="AU40" s="5" t="s">
         <v>47</v>
       </c>
     </row>
